--- a/regionseng/7/employment and unemployment/employment and unemployment.xlsx
+++ b/regionseng/7/employment and unemployment/employment and unemployment.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 20th International Conference of Labour Statisticians;
-The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
   </si>
   <si>
     <r>
@@ -128,6 +124,10 @@
       <t>percentage</t>
     </r>
   </si>
+  <si>
+    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19th and 20th International Conferences of Labour Statisticians;
+The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +314,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -385,7 +391,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -476,15 +482,35 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,15 +835,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="2" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -864,56 +893,56 @@
       <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3"/>
+      <c r="A3" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -935,7 +964,9 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="R5" s="5"/>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -998,6 +1029,12 @@
       <c r="T6" s="15">
         <v>2021</v>
       </c>
+      <c r="U6" s="15">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="30" t="s">
@@ -1060,10 +1097,16 @@
       <c r="T7" s="16">
         <v>25.559240186133827</v>
       </c>
+      <c r="U7" s="38">
+        <v>25.75016098909617</v>
+      </c>
+      <c r="V7" s="48">
+        <v>25.222357077395703</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="18">
         <v>379.38605017159762</v>
@@ -1121,6 +1164,12 @@
       </c>
       <c r="T8" s="18">
         <v>11.537632014353777</v>
+      </c>
+      <c r="U8" s="38">
+        <v>12.557667023789703</v>
+      </c>
+      <c r="V8" s="48">
+        <v>12.19136062484495</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1">
@@ -1184,6 +1233,12 @@
       <c r="T9" s="18">
         <v>8.0736499337372045</v>
       </c>
+      <c r="U9" s="38">
+        <v>9.4357106136270765</v>
+      </c>
+      <c r="V9" s="48">
+        <v>10.096763205337922</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="33" t="s">
@@ -1246,6 +1301,12 @@
       <c r="T10" s="18">
         <v>7.1023630512748657</v>
       </c>
+      <c r="U10" s="38">
+        <v>7.9781151278722753</v>
+      </c>
+      <c r="V10" s="48">
+        <v>8.7993435806731171</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="33" t="s">
@@ -1308,6 +1369,12 @@
       <c r="T11" s="18">
         <v>0.95989746534247544</v>
       </c>
+      <c r="U11" s="38">
+        <v>1.445926629878161</v>
+      </c>
+      <c r="V11" s="48">
+        <v>1.2974196246648089</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="33" t="s">
@@ -1370,6 +1437,12 @@
       <c r="T12" s="18">
         <v>1.1389417119863007E-2</v>
       </c>
+      <c r="U12" s="38">
+        <v>1.1668855876634524E-2</v>
+      </c>
+      <c r="V12" s="48">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1">
       <c r="A13" s="32" t="s">
@@ -1432,6 +1505,12 @@
       <c r="T13" s="18">
         <v>3.4639820806165758</v>
       </c>
+      <c r="U13" s="38">
+        <v>3.12195641016263</v>
+      </c>
+      <c r="V13" s="48">
+        <v>2.0945974195070405</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="34" t="s">
@@ -1494,10 +1573,16 @@
       <c r="T14" s="18">
         <v>14.021608171780052</v>
       </c>
+      <c r="U14" s="38">
+        <v>13.192493965306399</v>
+      </c>
+      <c r="V14" s="48">
+        <v>13.030996452550884</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="21">
         <v>9.0687630110490822</v>
@@ -1556,10 +1641,16 @@
       <c r="T15" s="21">
         <v>30.02333647239826</v>
       </c>
+      <c r="U15" s="39">
+        <v>24.86095868164271</v>
+      </c>
+      <c r="V15" s="49">
+        <v>17.180997953898846</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="21">
         <v>69.618192601148394</v>
@@ -1618,10 +1709,16 @@
       <c r="T16" s="21">
         <v>45.140747261387958</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="U16" s="39">
+        <v>48.767334033784138</v>
+      </c>
+      <c r="V16" s="49">
+        <v>48.335532588946087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="24">
         <v>63.30468370157466</v>
@@ -1680,84 +1777,96 @@
       <c r="T17" s="24">
         <v>31.58798882494656</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1">
+      <c r="U17" s="40">
+        <v>36.643307269506394</v>
+      </c>
+      <c r="V17" s="50">
+        <v>40.031005723833204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:24" s="45" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+    </row>
+    <row r="20" spans="1:24" ht="45" customHeight="1">
+      <c r="A20" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" customHeight="1">
+      <c r="A21" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1">
-      <c r="A20" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-    </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1">
-      <c r="A21" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1771,7 +1880,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:24">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -1785,7 +1894,7 @@
       <c r="L23"/>
       <c r="M23"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:24">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -1800,13 +1909,6 @@
       <c r="M24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A21:T21"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
